--- a/results/I3_N5_M3_T45_C100_DepLowerLeft_s0_res.xlsx
+++ b/results/I3_N5_M3_T45_C100_DepLowerLeft_s0_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1870.296977921679</v>
+        <v>186.7950950332234</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.70799994468689</v>
+        <v>0.8080000877380371</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>56.62407651846028</v>
+        <v>56.79509503322339</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24.77927525034087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17.32217665352131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1821.130000000038</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10">
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,127 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" t="n">
-        <v>5</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>3</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>5</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -744,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -755,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -766,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -777,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -788,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -799,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -810,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -821,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -995,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>34.35124120223185</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -1003,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>34.09486359553444</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -1011,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>39.81299701176103</v>
       </c>
     </row>
     <row r="6">
@@ -1019,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>35.85875413377282</v>
       </c>
     </row>
     <row r="7">
@@ -1027,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>35.11125526828178</v>
+        <v>36.87190877779048</v>
       </c>
     </row>
     <row r="8">
@@ -1065,7 +944,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1093,244 +972,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>7</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>7</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>7</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>7</v>
-      </c>
-      <c r="C7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="n">
-        <v>5</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>3</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>5</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>5</v>
-      </c>
-      <c r="C12" t="n">
-        <v>3</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>4</v>
-      </c>
-      <c r="B13" t="n">
-        <v>5</v>
-      </c>
-      <c r="C13" t="n">
-        <v>4</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>5</v>
-      </c>
-      <c r="C14" t="n">
-        <v>5</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>5</v>
-      </c>
-      <c r="B15" t="n">
-        <v>8</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>5</v>
-      </c>
-      <c r="B16" t="n">
-        <v>8</v>
-      </c>
-      <c r="C16" t="n">
-        <v>3</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>8</v>
-      </c>
-      <c r="C17" t="n">
-        <v>4</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="n">
-        <v>8</v>
-      </c>
-      <c r="C18" t="n">
-        <v>5</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1432,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>167.7200000000047</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
@@ -1443,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>168.6450000000022</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -1454,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>175.9100000000035</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
@@ -1465,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>167.0050000000028</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -1476,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>178.6300000000028</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12">
@@ -1487,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>111.4</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">
@@ -1498,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>122.0650000000009</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
@@ -1509,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>116.7150000000011</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15">
@@ -1520,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>125.2100000000013</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16">
@@ -1531,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>122.63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17">
@@ -1542,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>99.54500000000372</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18">
@@ -1553,7 +1194,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>92.51500000000306</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19">
@@ -1564,7 +1205,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>100.0700000000034</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20">
@@ -1575,7 +1216,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>90.09500000000298</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21">
@@ -1586,7 +1227,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>102.7800000000025</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22">
@@ -1597,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>108.5149999999999</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23">
@@ -1608,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>96.92000000000014</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24">
@@ -1619,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>106.6450000000002</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25">
@@ -1630,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>103.7449999999997</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26">
@@ -1641,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>100.4899999999994</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27">
@@ -1652,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>185.7349999999996</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
@@ -1663,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>184.2650000000039</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29">
@@ -1674,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>198.1249999999997</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30">
@@ -1685,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>195.6049999999977</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
@@ -1696,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>190.905000000001</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32">
@@ -1707,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>167.7200000000047</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33">
@@ -1718,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>168.6450000000021</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34">
@@ -1729,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>175.9100000000035</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35">
@@ -1740,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>167.0050000000027</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36">
@@ -1751,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>178.6300000000027</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37">
@@ -1762,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>111.4</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38">
@@ -1773,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>122.0650000000009</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39">
@@ -1784,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>116.7150000000011</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40">
@@ -1795,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>125.2100000000013</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41">
@@ -1806,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>122.63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42">
@@ -1817,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>185.7349999999996</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43">
@@ -1828,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>184.2650000000039</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44">
@@ -1839,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>198.1249999999997</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45">
@@ -1850,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>195.6049999999977</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46">
@@ -1861,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>190.905000000001</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1908,7 +1549,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>67.72000000000446</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -1919,7 +1560,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>68.6450000000018</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1930,7 +1571,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>75.91000000000304</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1941,7 +1582,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>67.00500000000216</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -1952,7 +1593,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>78.63000000000238</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1963,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>11.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1974,7 +1615,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>22.06500000000091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1985,7 +1626,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>16.71500000000111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1996,7 +1637,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>25.21000000000134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2007,7 +1648,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>22.62999999999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2018,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>85.73499999999964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2029,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>84.26500000000394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2040,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>98.12499999999972</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -2051,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>95.60499999999769</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -2062,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>90.90500000000102</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2387,7 +2028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2414,10 +2055,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2425,10 +2066,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2436,10 +2077,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -2447,10 +2088,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -2458,10 +2099,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2469,10 +2110,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2480,10 +2121,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2491,155 +2132,12 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" t="n">
-        <v>3</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" t="n">
-        <v>5</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>3</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>4</v>
-      </c>
-      <c r="B16" t="n">
-        <v>4</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>4</v>
-      </c>
-      <c r="B17" t="n">
-        <v>5</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>5</v>
-      </c>
-      <c r="B19" t="n">
-        <v>2</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>5</v>
-      </c>
-      <c r="B20" t="n">
-        <v>3</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>5</v>
-      </c>
-      <c r="B21" t="n">
-        <v>4</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>5</v>
-      </c>
-      <c r="B22" t="n">
-        <v>5</v>
-      </c>
-      <c r="C22" t="n">
         <v>1</v>
       </c>
     </row>
